--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3D2146-1959-42F7-BA83-6E0AEDFEB291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE5C5C-3FAE-4375-8FEC-7223F5D288F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
-    <sheet name="ロボットの追加" sheetId="6" r:id="rId4"/>
-    <sheet name="ロボットの削除" sheetId="8" r:id="rId5"/>
+    <sheet name="ロボットの追加・削除" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -60,7 +59,10 @@
     <t>ロボット</t>
   </si>
   <si>
-    <t>ロボット名</t>
+    <t>追加されるロボット名</t>
+  </si>
+  <si>
+    <t>削除れるロボット名</t>
   </si>
 </sst>
 </file>
@@ -112,40 +114,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -339,10 +308,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:E101">
   <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="ロボットグループID" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="ロボットグループ名" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="組織単位ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="組織単位名" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="ロボットグループID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="ロボットグループ名" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ロボット"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -354,9 +323,9 @@
   <autoFilter ref="A1:D95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="組織単位名"/>
-    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E6EA9AC7-5C1D-45D2-A446-988F46C92A27}" name="ロボットグループ名" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ロボットグループID"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -366,37 +335,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E80" totalsRowShown="0">
   <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="ロボットグループID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="ロボットグループ名" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="組織単位ID" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="組織単位名" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="ロボットグループID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="ロボットグループ名" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{093AD86C-145C-4012-81EE-912578BE4FA9}" name="Table135" displayName="Table135" ref="A1:D80" totalsRowShown="0">
-  <autoFilter ref="A1:D80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{75068F78-D567-4F2E-8A84-C3E580304C35}" name="組織単位名" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{CADA43DE-1FFD-49B9-BAA5-5A353CC5C3BB}" name="ロボットグループ名" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C5235B9D-84DF-4FFC-A1DC-D50ADEA66C43}" name="ロボット名" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{301DCAA1-9295-4736-B6D1-169219156E37}" name="結果" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C14BA6B3-C88D-4B69-8C0E-D8509997BCD1}" name="Table1357" displayName="Table1357" ref="A1:D80" totalsRowShown="0">
-  <autoFilter ref="A1:D80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{1DC4A7F3-B848-41A9-954A-D2E41A981198}" name="組織単位名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E774C829-4CC8-4FB6-9D85-424E6B5EA446}" name="ロボットグループ名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{82F2567D-B8D3-4ECD-9FF7-BA234AB90135}" name="ロボット名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BD450849-0584-4068-9322-D4086FF9DD8A}" name="結果" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{093AD86C-145C-4012-81EE-912578BE4FA9}" name="Table135" displayName="Table135" ref="A1:E80" totalsRowShown="0">
+  <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{75068F78-D567-4F2E-8A84-C3E580304C35}" name="組織単位名" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CADA43DE-1FFD-49B9-BAA5-5A353CC5C3BB}" name="ロボットグループ名" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C5235B9D-84DF-4FFC-A1DC-D50ADEA66C43}" name="追加されるロボット名" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{813DF9CD-B744-424B-84C4-119E3BFD15AE}" name="削除れるロボット名" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{301DCAA1-9295-4736-B6D1-169219156E37}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1466,7 +1423,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10AF92-B7BC-4AAE-B296-5F9873382148}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1476,10 +1433,11 @@
   <cols>
     <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1490,702 +1448,406 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0544EEB-F134-43AA-A642-9D112C9DED0D}">
-  <dimension ref="A1:D80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE5C5C-3FAE-4375-8FEC-7223F5D288F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724F31F-6F3C-402F-9A90-615831CAF347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,8 +352,8 @@
     <tableColumn id="5" xr3:uid="{75068F78-D567-4F2E-8A84-C3E580304C35}" name="組織単位名" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{CADA43DE-1FFD-49B9-BAA5-5A353CC5C3BB}" name="ロボットグループ名" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C5235B9D-84DF-4FFC-A1DC-D50ADEA66C43}" name="追加されるロボット名" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{813DF9CD-B744-424B-84C4-119E3BFD15AE}" name="削除れるロボット名" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{301DCAA1-9295-4736-B6D1-169219156E37}" name="結果" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{813DF9CD-B744-424B-84C4-119E3BFD15AE}" name="削除れるロボット名" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{301DCAA1-9295-4736-B6D1-169219156E37}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E724F31F-6F3C-402F-9A90-615831CAF347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63C59E-A4DD-48E1-BA5D-64301B8C76DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C63C59E-A4DD-48E1-BA5D-64301B8C76DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9911354-73C1-4D1D-B272-59E63C4D0E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9911354-73C1-4D1D-B272-59E63C4D0E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6054C084-F45F-4337-8601-91097B804E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>追加されるロボット名</t>
   </si>
   <si>
-    <t>削除れるロボット名</t>
+    <t>削除されるロボット名</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
     <tableColumn id="5" xr3:uid="{75068F78-D567-4F2E-8A84-C3E580304C35}" name="組織単位名" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{CADA43DE-1FFD-49B9-BAA5-5A353CC5C3BB}" name="ロボットグループ名" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{C5235B9D-84DF-4FFC-A1DC-D50ADEA66C43}" name="追加されるロボット名" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{813DF9CD-B744-424B-84C4-119E3BFD15AE}" name="削除れるロボット名" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{813DF9CD-B744-424B-84C4-119E3BFD15AE}" name="削除されるロボット名" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{301DCAA1-9295-4736-B6D1-169219156E37}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1096,84 +1096,126 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1433,8 +1475,7 @@
   <cols>
     <col min="1" max="1" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6054C084-F45F-4337-8601-91097B804E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EED87-A315-4869-A6D1-0210A416EAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EED87-A315-4869-A6D1-0210A416EAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5F741-9FBF-4522-AECB-6CD845368DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5F741-9FBF-4522-AECB-6CD845368DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7F1D3-8E54-4069-9577-8BC7A44B9B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,31 +1128,19 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">

--- a/Config/JA/ロボットグループ.xlsx
+++ b/Config/JA/ロボットグループ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC7F1D3-8E54-4069-9577-8BC7A44B9B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61F60D-847C-42BB-82C6-27BBCE3DFE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
